--- a/Task/2015-06-04siebel上线后会员数据整合/JIN_UPD_CUST_PROC历史修复记录.xlsx
+++ b/Task/2015-06-04siebel上线后会员数据整合/JIN_UPD_CUST_PROC历史修复记录.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="6">
   <si>
     <t>DATE</t>
   </si>
@@ -28,6 +26,10 @@
   </si>
   <si>
     <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -403,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="C306" sqref="C306:C397"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3385,7 +3387,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140704000);</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3401,7 +3403,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140705000);</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3417,7 +3419,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140706000);</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3433,7 +3435,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140707000);</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3449,7 +3451,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140708000);</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3465,7 +3467,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140709000);</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3481,7 +3483,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140710000);</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3497,7 +3499,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140711000);</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3513,7 +3515,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140712000);</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3529,7 +3531,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140713000);</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3545,7 +3547,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140714000);</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3561,7 +3563,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140715000);</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3577,7 +3579,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140716000);</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3593,7 +3595,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140717000);</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3609,7 +3611,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140718000);</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3625,7 +3627,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140719000);</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3641,7 +3643,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140720000);</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3657,7 +3659,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140721000);</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3673,7 +3675,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140722000);</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3689,7 +3691,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140723000);</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3705,7 +3707,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140724000);</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3721,7 +3723,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140725000);</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3737,7 +3739,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140726000);</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3753,7 +3755,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140727000);</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3769,7 +3771,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140728000);</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3785,7 +3787,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140729000);</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3801,7 +3803,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140730000);</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3817,7 +3819,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140731000);</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3833,7 +3835,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140801000);</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3849,7 +3851,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140802000);</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3865,7 +3867,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140803000);</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3881,7 +3883,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140804000);</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3897,7 +3899,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140805000);</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3913,7 +3915,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140806000);</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3929,7 +3931,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140807000);</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3945,7 +3947,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140808000);</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3961,7 +3963,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140809000);</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3977,7 +3979,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140810000);</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3993,7 +3995,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140811000);</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4009,7 +4011,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140812000);</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4025,7 +4027,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140813000);</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4041,7 +4043,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140814000);</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4057,7 +4059,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140815000);</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4073,7 +4075,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140816000);</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4089,7 +4091,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140817000);</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4105,7 +4107,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140818000);</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4121,7 +4123,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140819000);</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4137,7 +4139,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140820000);</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4153,7 +4155,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140821000);</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4169,7 +4171,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140822000);</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4185,7 +4187,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140823000);</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4201,7 +4203,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140824000);</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4217,7 +4219,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140825000);</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4233,7 +4235,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140826000);</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4249,7 +4251,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140827000);</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4265,7 +4267,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140828000);</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4281,7 +4283,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140829000);</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4297,7 +4299,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140830000);</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4313,7 +4315,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140831000);</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4329,7 +4331,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140901000);</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4345,7 +4347,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140902000);</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4361,7 +4363,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140903000);</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4377,7 +4379,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140904000);</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4393,7 +4395,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140905000);</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4409,7 +4411,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140906000);</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4425,7 +4427,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140907000);</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4441,7 +4443,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140908000);</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4457,7 +4459,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140909000);</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4473,7 +4475,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140910000);</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4489,7 +4491,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140911000);</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4505,7 +4507,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140912000);</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4521,7 +4523,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140913000);</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4537,7 +4539,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140914000);</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4553,7 +4555,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140915000);</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4569,7 +4571,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140916000);</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4585,7 +4587,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140917000);</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4601,7 +4603,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140918000);</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4617,7 +4619,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140919000);</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4633,7 +4635,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140920000);</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4649,7 +4651,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140921000);</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4665,7 +4667,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140922000);</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4681,7 +4683,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140923000);</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4697,7 +4699,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140924000);</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4713,7 +4715,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140925000);</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4729,7 +4731,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140926000);</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4745,7 +4747,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140927000);</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4761,7 +4763,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140928000);</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4777,7 +4779,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140929000);</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4793,7 +4795,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120140930000);</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4809,7 +4811,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141001000);</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4825,7 +4827,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141002000);</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4841,7 +4843,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141003000);</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4857,7 +4859,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141004000);</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4873,7 +4875,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141005000);</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4889,7 +4891,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141006000);</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4905,7 +4907,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141007000);</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4921,7 +4923,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141008000);</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4937,7 +4939,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141009000);</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4953,7 +4955,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141010000);</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4969,7 +4971,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141011000);</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4985,7 +4987,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141012000);</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5001,7 +5003,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141013000);</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5017,7 +5019,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141014000);</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5033,7 +5035,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141015000);</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5049,7 +5051,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141016000);</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5065,7 +5067,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141017000);</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5081,7 +5083,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141018000);</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5097,7 +5099,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141019000);</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5113,7 +5115,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141020000);</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5129,7 +5131,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141021000);</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5145,7 +5147,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141022000);</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5161,7 +5163,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141023000);</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5177,7 +5179,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141024000);</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5193,7 +5195,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141025000);</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5209,7 +5211,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141026000);</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5225,7 +5227,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141027000);</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5241,7 +5243,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141028000);</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5257,7 +5259,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141029000);</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5273,7 +5275,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141030000);</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5289,7 +5291,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120141031000);</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5304,6 +5306,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPD_CUST_PROC(120141101000);</v>
       </c>
+      <c r="D306" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="3">
@@ -5317,6 +5322,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPD_CUST_PROC(120141102000);</v>
       </c>
+      <c r="D307" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="3">
@@ -5330,6 +5338,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPD_CUST_PROC(120141103000);</v>
       </c>
+      <c r="D308" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="3">
@@ -5343,6 +5354,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPD_CUST_PROC(120141104000);</v>
       </c>
+      <c r="D309" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="3">
@@ -5356,6 +5370,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPD_CUST_PROC(120141105000);</v>
       </c>
+      <c r="D310" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="3">
@@ -5369,6 +5386,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPD_CUST_PROC(120141106000);</v>
       </c>
+      <c r="D311" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="3">
@@ -5382,6 +5402,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPD_CUST_PROC(120141107000);</v>
       </c>
+      <c r="D312" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="3">
@@ -5395,6 +5418,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPD_CUST_PROC(120141108000);</v>
       </c>
+      <c r="D313" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="3">
@@ -5408,6 +5434,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPD_CUST_PROC(120141109000);</v>
       </c>
+      <c r="D314" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="3">
@@ -5421,6 +5450,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPD_CUST_PROC(120141110000);</v>
       </c>
+      <c r="D315" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="3">
@@ -5434,6 +5466,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPD_CUST_PROC(120141111000);</v>
       </c>
+      <c r="D316" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="3">
@@ -5447,6 +5482,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPD_CUST_PROC(120141112000);</v>
       </c>
+      <c r="D317" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="3">
@@ -5460,6 +5498,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPD_CUST_PROC(120141113000);</v>
       </c>
+      <c r="D318" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="3">
@@ -5473,6 +5514,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPD_CUST_PROC(120141114000);</v>
       </c>
+      <c r="D319" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="3">
@@ -5486,8 +5530,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPD_CUST_PROC(120141115000);</v>
       </c>
-    </row>
-    <row r="321" spans="1:3">
+      <c r="D320" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
       <c r="A321" s="3">
         <v>41959</v>
       </c>
@@ -5499,8 +5546,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPD_CUST_PROC(120141116000);</v>
       </c>
-    </row>
-    <row r="322" spans="1:3">
+      <c r="D321" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
       <c r="A322" s="3">
         <v>41960</v>
       </c>
@@ -5512,8 +5562,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPD_CUST_PROC(120141117000);</v>
       </c>
-    </row>
-    <row r="323" spans="1:3">
+      <c r="D322" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
       <c r="A323" s="3">
         <v>41961</v>
       </c>
@@ -5525,8 +5578,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPD_CUST_PROC(120141118000);</v>
       </c>
-    </row>
-    <row r="324" spans="1:3">
+      <c r="D323" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
       <c r="A324" s="3">
         <v>41962</v>
       </c>
@@ -5538,8 +5594,11 @@
         <f t="shared" ref="C324:C387" si="11">CONCATENATE("CALL JIN_UPD_CUST_PROC(1",B324,"000);")</f>
         <v>CALL JIN_UPD_CUST_PROC(120141119000);</v>
       </c>
-    </row>
-    <row r="325" spans="1:3">
+      <c r="D324" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
       <c r="A325" s="3">
         <v>41963</v>
       </c>
@@ -5551,8 +5610,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141120000);</v>
       </c>
-    </row>
-    <row r="326" spans="1:3">
+      <c r="D325" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
       <c r="A326" s="3">
         <v>41964</v>
       </c>
@@ -5564,8 +5626,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141121000);</v>
       </c>
-    </row>
-    <row r="327" spans="1:3">
+      <c r="D326" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
       <c r="A327" s="3">
         <v>41965</v>
       </c>
@@ -5577,8 +5642,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141122000);</v>
       </c>
-    </row>
-    <row r="328" spans="1:3">
+      <c r="D327" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
       <c r="A328" s="3">
         <v>41966</v>
       </c>
@@ -5590,8 +5658,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141123000);</v>
       </c>
-    </row>
-    <row r="329" spans="1:3">
+      <c r="D328" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
       <c r="A329" s="3">
         <v>41967</v>
       </c>
@@ -5603,8 +5674,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141124000);</v>
       </c>
-    </row>
-    <row r="330" spans="1:3">
+      <c r="D329" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
       <c r="A330" s="3">
         <v>41968</v>
       </c>
@@ -5616,8 +5690,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141125000);</v>
       </c>
-    </row>
-    <row r="331" spans="1:3">
+      <c r="D330" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
       <c r="A331" s="3">
         <v>41969</v>
       </c>
@@ -5629,8 +5706,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141126000);</v>
       </c>
-    </row>
-    <row r="332" spans="1:3">
+      <c r="D331" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
       <c r="A332" s="3">
         <v>41970</v>
       </c>
@@ -5642,8 +5722,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141127000);</v>
       </c>
-    </row>
-    <row r="333" spans="1:3">
+      <c r="D332" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
       <c r="A333" s="3">
         <v>41971</v>
       </c>
@@ -5655,8 +5738,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141128000);</v>
       </c>
-    </row>
-    <row r="334" spans="1:3">
+      <c r="D333" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
       <c r="A334" s="3">
         <v>41972</v>
       </c>
@@ -5668,8 +5754,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141129000);</v>
       </c>
-    </row>
-    <row r="335" spans="1:3">
+      <c r="D334" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
       <c r="A335" s="3">
         <v>41973</v>
       </c>
@@ -5681,8 +5770,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141130000);</v>
       </c>
-    </row>
-    <row r="336" spans="1:3">
+      <c r="D335" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
       <c r="A336" s="3">
         <v>41974</v>
       </c>
@@ -5694,8 +5786,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141201000);</v>
       </c>
-    </row>
-    <row r="337" spans="1:3">
+      <c r="D336" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
       <c r="A337" s="3">
         <v>41975</v>
       </c>
@@ -5707,8 +5802,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141202000);</v>
       </c>
-    </row>
-    <row r="338" spans="1:3">
+      <c r="D337" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
       <c r="A338" s="3">
         <v>41976</v>
       </c>
@@ -5720,8 +5818,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141203000);</v>
       </c>
-    </row>
-    <row r="339" spans="1:3">
+      <c r="D338" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
       <c r="A339" s="3">
         <v>41977</v>
       </c>
@@ -5733,8 +5834,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141204000);</v>
       </c>
-    </row>
-    <row r="340" spans="1:3">
+      <c r="D339" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
       <c r="A340" s="3">
         <v>41978</v>
       </c>
@@ -5746,8 +5850,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141205000);</v>
       </c>
-    </row>
-    <row r="341" spans="1:3">
+      <c r="D340" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
       <c r="A341" s="3">
         <v>41979</v>
       </c>
@@ -5759,8 +5866,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141206000);</v>
       </c>
-    </row>
-    <row r="342" spans="1:3">
+      <c r="D341" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
       <c r="A342" s="3">
         <v>41980</v>
       </c>
@@ -5772,8 +5882,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141207000);</v>
       </c>
-    </row>
-    <row r="343" spans="1:3">
+      <c r="D342" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
       <c r="A343" s="3">
         <v>41981</v>
       </c>
@@ -5785,8 +5898,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141208000);</v>
       </c>
-    </row>
-    <row r="344" spans="1:3">
+      <c r="D343" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
       <c r="A344" s="3">
         <v>41982</v>
       </c>
@@ -5798,8 +5914,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141209000);</v>
       </c>
-    </row>
-    <row r="345" spans="1:3">
+      <c r="D344" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
       <c r="A345" s="3">
         <v>41983</v>
       </c>
@@ -5811,8 +5930,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141210000);</v>
       </c>
-    </row>
-    <row r="346" spans="1:3">
+      <c r="D345" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
       <c r="A346" s="3">
         <v>41984</v>
       </c>
@@ -5824,8 +5946,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141211000);</v>
       </c>
-    </row>
-    <row r="347" spans="1:3">
+      <c r="D346" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
       <c r="A347" s="3">
         <v>41985</v>
       </c>
@@ -5837,8 +5962,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141212000);</v>
       </c>
-    </row>
-    <row r="348" spans="1:3">
+      <c r="D347" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
       <c r="A348" s="3">
         <v>41986</v>
       </c>
@@ -5850,8 +5978,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141213000);</v>
       </c>
-    </row>
-    <row r="349" spans="1:3">
+      <c r="D348" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
       <c r="A349" s="3">
         <v>41987</v>
       </c>
@@ -5863,8 +5994,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141214000);</v>
       </c>
-    </row>
-    <row r="350" spans="1:3">
+      <c r="D349" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
       <c r="A350" s="3">
         <v>41988</v>
       </c>
@@ -5876,8 +6010,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141215000);</v>
       </c>
-    </row>
-    <row r="351" spans="1:3">
+      <c r="D350" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
       <c r="A351" s="3">
         <v>41989</v>
       </c>
@@ -5889,8 +6026,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141216000);</v>
       </c>
-    </row>
-    <row r="352" spans="1:3">
+      <c r="D351" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
       <c r="A352" s="3">
         <v>41990</v>
       </c>
@@ -5902,8 +6042,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141217000);</v>
       </c>
-    </row>
-    <row r="353" spans="1:3">
+      <c r="D352" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
       <c r="A353" s="3">
         <v>41991</v>
       </c>
@@ -5915,8 +6058,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141218000);</v>
       </c>
-    </row>
-    <row r="354" spans="1:3">
+      <c r="D353" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
       <c r="A354" s="3">
         <v>41992</v>
       </c>
@@ -5928,8 +6074,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141219000);</v>
       </c>
-    </row>
-    <row r="355" spans="1:3">
+      <c r="D354" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
       <c r="A355" s="3">
         <v>41993</v>
       </c>
@@ -5941,8 +6090,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141220000);</v>
       </c>
-    </row>
-    <row r="356" spans="1:3">
+      <c r="D355" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
       <c r="A356" s="3">
         <v>41994</v>
       </c>
@@ -5954,8 +6106,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141221000);</v>
       </c>
-    </row>
-    <row r="357" spans="1:3">
+      <c r="D356" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
       <c r="A357" s="3">
         <v>41995</v>
       </c>
@@ -5967,8 +6122,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141222000);</v>
       </c>
-    </row>
-    <row r="358" spans="1:3">
+      <c r="D357" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
       <c r="A358" s="3">
         <v>41996</v>
       </c>
@@ -5980,8 +6138,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141223000);</v>
       </c>
-    </row>
-    <row r="359" spans="1:3">
+      <c r="D358" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
       <c r="A359" s="3">
         <v>41997</v>
       </c>
@@ -5993,8 +6154,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141224000);</v>
       </c>
-    </row>
-    <row r="360" spans="1:3">
+      <c r="D359" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
       <c r="A360" s="3">
         <v>41998</v>
       </c>
@@ -6006,8 +6170,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141225000);</v>
       </c>
-    </row>
-    <row r="361" spans="1:3">
+      <c r="D360" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
       <c r="A361" s="3">
         <v>41999</v>
       </c>
@@ -6019,8 +6186,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141226000);</v>
       </c>
-    </row>
-    <row r="362" spans="1:3">
+      <c r="D361" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
       <c r="A362" s="3">
         <v>42000</v>
       </c>
@@ -6032,8 +6202,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141227000);</v>
       </c>
-    </row>
-    <row r="363" spans="1:3">
+      <c r="D362" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
       <c r="A363" s="3">
         <v>42001</v>
       </c>
@@ -6045,8 +6218,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141228000);</v>
       </c>
-    </row>
-    <row r="364" spans="1:3">
+      <c r="D363" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
       <c r="A364" s="3">
         <v>42002</v>
       </c>
@@ -6058,8 +6234,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141229000);</v>
       </c>
-    </row>
-    <row r="365" spans="1:3">
+      <c r="D364" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
       <c r="A365" s="3">
         <v>42003</v>
       </c>
@@ -6071,8 +6250,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141230000);</v>
       </c>
-    </row>
-    <row r="366" spans="1:3">
+      <c r="D365" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
       <c r="A366" s="3">
         <v>42004</v>
       </c>
@@ -6084,8 +6266,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120141231000);</v>
       </c>
-    </row>
-    <row r="367" spans="1:3">
+      <c r="D366" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
       <c r="A367" s="3">
         <v>42005</v>
       </c>
@@ -6097,8 +6282,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150101000);</v>
       </c>
-    </row>
-    <row r="368" spans="1:3">
+      <c r="D367" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
       <c r="A368" s="3">
         <v>42006</v>
       </c>
@@ -6110,8 +6298,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150102000);</v>
       </c>
-    </row>
-    <row r="369" spans="1:3">
+      <c r="D368" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
       <c r="A369" s="3">
         <v>42007</v>
       </c>
@@ -6123,8 +6314,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150103000);</v>
       </c>
-    </row>
-    <row r="370" spans="1:3">
+      <c r="D369" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
       <c r="A370" s="3">
         <v>42008</v>
       </c>
@@ -6136,8 +6330,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150104000);</v>
       </c>
-    </row>
-    <row r="371" spans="1:3">
+      <c r="D370" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
       <c r="A371" s="3">
         <v>42009</v>
       </c>
@@ -6149,8 +6346,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150105000);</v>
       </c>
-    </row>
-    <row r="372" spans="1:3">
+      <c r="D371" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
       <c r="A372" s="3">
         <v>42010</v>
       </c>
@@ -6162,8 +6362,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150106000);</v>
       </c>
-    </row>
-    <row r="373" spans="1:3">
+      <c r="D372" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
       <c r="A373" s="3">
         <v>42011</v>
       </c>
@@ -6175,8 +6378,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150107000);</v>
       </c>
-    </row>
-    <row r="374" spans="1:3">
+      <c r="D373" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
       <c r="A374" s="3">
         <v>42012</v>
       </c>
@@ -6188,8 +6394,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150108000);</v>
       </c>
-    </row>
-    <row r="375" spans="1:3">
+      <c r="D374" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
       <c r="A375" s="3">
         <v>42013</v>
       </c>
@@ -6201,8 +6410,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150109000);</v>
       </c>
-    </row>
-    <row r="376" spans="1:3">
+      <c r="D375" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
       <c r="A376" s="3">
         <v>42014</v>
       </c>
@@ -6214,8 +6426,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150110000);</v>
       </c>
-    </row>
-    <row r="377" spans="1:3">
+      <c r="D376" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
       <c r="A377" s="3">
         <v>42015</v>
       </c>
@@ -6227,8 +6442,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150111000);</v>
       </c>
-    </row>
-    <row r="378" spans="1:3">
+      <c r="D377" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
       <c r="A378" s="3">
         <v>42016</v>
       </c>
@@ -6240,8 +6458,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150112000);</v>
       </c>
-    </row>
-    <row r="379" spans="1:3">
+      <c r="D378" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
       <c r="A379" s="3">
         <v>42017</v>
       </c>
@@ -6253,8 +6474,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150113000);</v>
       </c>
-    </row>
-    <row r="380" spans="1:3">
+      <c r="D379" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
       <c r="A380" s="3">
         <v>42018</v>
       </c>
@@ -6266,8 +6490,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150114000);</v>
       </c>
-    </row>
-    <row r="381" spans="1:3">
+      <c r="D380" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
       <c r="A381" s="3">
         <v>42019</v>
       </c>
@@ -6279,8 +6506,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150115000);</v>
       </c>
-    </row>
-    <row r="382" spans="1:3">
+      <c r="D381" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
       <c r="A382" s="3">
         <v>42020</v>
       </c>
@@ -6292,8 +6522,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150116000);</v>
       </c>
-    </row>
-    <row r="383" spans="1:3">
+      <c r="D382" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
       <c r="A383" s="3">
         <v>42021</v>
       </c>
@@ -6305,8 +6538,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150117000);</v>
       </c>
-    </row>
-    <row r="384" spans="1:3">
+      <c r="D383" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
       <c r="A384" s="3">
         <v>42022</v>
       </c>
@@ -6318,8 +6554,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150118000);</v>
       </c>
-    </row>
-    <row r="385" spans="1:3">
+      <c r="D384" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
       <c r="A385" s="3">
         <v>42023</v>
       </c>
@@ -6331,8 +6570,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150119000);</v>
       </c>
-    </row>
-    <row r="386" spans="1:3">
+      <c r="D385" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
       <c r="A386" s="3">
         <v>42024</v>
       </c>
@@ -6344,8 +6586,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150120000);</v>
       </c>
-    </row>
-    <row r="387" spans="1:3">
+      <c r="D386" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
       <c r="A387" s="3">
         <v>42025</v>
       </c>
@@ -6357,8 +6602,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPD_CUST_PROC(120150121000);</v>
       </c>
-    </row>
-    <row r="388" spans="1:3">
+      <c r="D387" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
       <c r="A388" s="3">
         <v>42026</v>
       </c>
@@ -6370,8 +6618,11 @@
         <f t="shared" ref="C388:C451" si="13">CONCATENATE("CALL JIN_UPD_CUST_PROC(1",B388,"000);")</f>
         <v>CALL JIN_UPD_CUST_PROC(120150122000);</v>
       </c>
-    </row>
-    <row r="389" spans="1:3">
+      <c r="D388" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
       <c r="A389" s="3">
         <v>42027</v>
       </c>
@@ -6383,8 +6634,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPD_CUST_PROC(120150123000);</v>
       </c>
-    </row>
-    <row r="390" spans="1:3">
+      <c r="D389" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
       <c r="A390" s="3">
         <v>42028</v>
       </c>
@@ -6396,8 +6650,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPD_CUST_PROC(120150124000);</v>
       </c>
-    </row>
-    <row r="391" spans="1:3">
+      <c r="D390" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
       <c r="A391" s="3">
         <v>42029</v>
       </c>
@@ -6409,8 +6666,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPD_CUST_PROC(120150125000);</v>
       </c>
-    </row>
-    <row r="392" spans="1:3">
+      <c r="D391" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
       <c r="A392" s="3">
         <v>42030</v>
       </c>
@@ -6422,8 +6682,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPD_CUST_PROC(120150126000);</v>
       </c>
-    </row>
-    <row r="393" spans="1:3">
+      <c r="D392" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
       <c r="A393" s="3">
         <v>42031</v>
       </c>
@@ -6435,8 +6698,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPD_CUST_PROC(120150127000);</v>
       </c>
-    </row>
-    <row r="394" spans="1:3">
+      <c r="D393" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
       <c r="A394" s="3">
         <v>42032</v>
       </c>
@@ -6448,8 +6714,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPD_CUST_PROC(120150128000);</v>
       </c>
-    </row>
-    <row r="395" spans="1:3">
+      <c r="D394" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
       <c r="A395" s="3">
         <v>42033</v>
       </c>
@@ -6461,8 +6730,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPD_CUST_PROC(120150129000);</v>
       </c>
-    </row>
-    <row r="396" spans="1:3">
+      <c r="D395" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
       <c r="A396" s="3">
         <v>42034</v>
       </c>
@@ -6474,8 +6746,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPD_CUST_PROC(120150130000);</v>
       </c>
-    </row>
-    <row r="397" spans="1:3">
+      <c r="D396" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
       <c r="A397" s="3">
         <v>42035</v>
       </c>
@@ -6487,8 +6762,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPD_CUST_PROC(120150131000);</v>
       </c>
-    </row>
-    <row r="398" spans="1:3">
+      <c r="D397" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
       <c r="A398" s="3">
         <v>42036</v>
       </c>
@@ -6501,7 +6779,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120150201000);</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:4">
       <c r="A399" s="3">
         <v>42037</v>
       </c>
@@ -6514,7 +6792,7 @@
         <v>CALL JIN_UPD_CUST_PROC(120150202000);</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:4">
       <c r="A400" s="3">
         <v>42038</v>
       </c>
@@ -12550,30 +12828,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>